--- a/比特直播课/比特直播课讲义/笔记-C语言/2024_9_23 16.指针收尾+字符函数和字符串函数.xlsx
+++ b/比特直播课/比特直播课讲义/笔记-C语言/2024_9_23 16.指针收尾+字符函数和字符串函数.xlsx
@@ -16,13 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>指针题目收尾，接下来是字符函数和字符串函数的内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>strncpy函数使用时，被拷贝数组元素不足的时候放\0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例题是暴力求解，课下可以了解一下kmp算法，更高效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1105,6 +1109,158 @@
         <a:xfrm>
           <a:off x="1724025" y="104946450"/>
           <a:ext cx="6371429" cy="7009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>609</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>550982</xdr:colOff>
+      <xdr:row>651</xdr:row>
+      <xdr:rowOff>37208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8696325" y="104517825"/>
+          <a:ext cx="11742857" cy="7133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>652</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>475977</xdr:colOff>
+      <xdr:row>670</xdr:row>
+      <xdr:rowOff>66294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8582025" y="111890175"/>
+          <a:ext cx="2180952" cy="3047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>683</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>27754</xdr:colOff>
+      <xdr:row>703</xdr:row>
+      <xdr:rowOff>161487</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14716125" y="117186075"/>
+          <a:ext cx="6571429" cy="3504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>677</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>541208</xdr:colOff>
+      <xdr:row>706</xdr:row>
+      <xdr:rowOff>123208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="116233575"/>
+          <a:ext cx="13733333" cy="4933333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1403,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C173:X524"/>
+  <dimension ref="C173:X655"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
-      <selection activeCell="R638" sqref="R638"/>
+    <sheetView tabSelected="1" topLeftCell="A664" workbookViewId="0">
+      <selection activeCell="R711" sqref="R711"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1419,6 +1575,11 @@
     <row r="524" spans="24:24" x14ac:dyDescent="0.15">
       <c r="X524" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q655" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/比特直播课/比特直播课讲义/笔记-C语言/2024_9_23 16.指针收尾+字符函数和字符串函数.xlsx
+++ b/比特直播课/比特直播课讲义/笔记-C语言/2024_9_23 16.指针收尾+字符函数和字符串函数.xlsx
@@ -1261,6 +1261,82 @@
         <a:xfrm>
           <a:off x="523875" y="116233575"/>
           <a:ext cx="13733333" cy="4933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>709</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>46524</xdr:colOff>
+      <xdr:row>729</xdr:row>
+      <xdr:rowOff>142443</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="121672350"/>
+          <a:ext cx="8809524" cy="3457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>730</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>684864</xdr:colOff>
+      <xdr:row>745</xdr:row>
+      <xdr:rowOff>94929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2800350" y="125253750"/>
+          <a:ext cx="7485714" cy="2571429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1561,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C173:X655"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A664" workbookViewId="0">
-      <selection activeCell="R711" sqref="R711"/>
+    <sheetView tabSelected="1" topLeftCell="A703" workbookViewId="0">
+      <selection activeCell="U733" sqref="U733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
